--- a/etc/2022-06.xlsx
+++ b/etc/2022-06.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgeny/Projects/tsn/electricity/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B57872-9287-BA4E-AE83-E90EA757A390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06A3001-118C-3948-B972-3D9948171FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9900" windowWidth="28800" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1405,7 +1405,7 @@
   <dimension ref="B1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
